--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">                     name</t>
   </si>
@@ -45,58 +45,69 @@
     <t xml:space="preserve">         Linux_call_graph</t>
   </si>
   <si>
+    <t xml:space="preserve">               webbase-1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  gearbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               web-Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                atmosmodm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Freescale1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               mouse_gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ldoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 road_usa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> channel-500x100x100-b050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   cage15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               europe_osm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         kron_g500-logn21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                com-Orkut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            rgg_n_2_24_s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              human_gene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">            parabolic_fem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               webbase-1M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  gearbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               web-Google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                atmosmodm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Freescale1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              human_gene1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               mouse_gene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    ldoor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 road_usa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.690964 MTEPS</t>
+  </si>
+  <si>
+    <t>sssp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         soc-twitter-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        hugebubbles-00020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> channel-500x100x100-b050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   cage15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               europe_osm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         kron_g500-logn21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                com-Orkut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            rgg_n_2_24_s0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         soc-twitter-2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -436,7 +447,7 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +468,11 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -480,7 +494,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -502,9 +516,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>525825</v>
@@ -524,9 +538,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>1000005</v>
@@ -546,9 +560,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>153746</v>
@@ -568,9 +582,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>916428</v>
@@ -590,9 +604,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1489752</v>
@@ -612,9 +626,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>3428755</v>
@@ -634,9 +648,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>22283</v>
@@ -656,9 +670,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>45101</v>
@@ -678,9 +692,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>952203</v>
@@ -700,9 +714,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>23947347</v>
@@ -722,9 +736,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>21198119</v>
@@ -744,9 +758,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>4802000</v>
@@ -766,9 +780,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>5154859</v>
@@ -788,9 +802,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>50912018</v>
@@ -810,9 +824,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>2097152</v>
@@ -832,9 +846,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>3072441</v>
@@ -854,9 +868,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>16777216</v>
@@ -876,9 +890,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>21297772</v>
@@ -897,8 +911,11 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
